--- a/DTID/wwwroot/excels/Wage.xlsx
+++ b/DTID/wwwroot/excels/Wage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70384021-F2F3-4DCF-BCD0-DBE67E49A9B1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3F900-C1C3-4A1C-8B80-B6CFA1CE2C2B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>text</t>
+          <t>year</t>
         </r>
       </text>
     </comment>
@@ -78,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +98,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,7 +415,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +657,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>